--- a/Data Files/bitcoin/xlsx Files/final_data_TEST_DATA.xlsx
+++ b/Data Files/bitcoin/xlsx Files/final_data_TEST_DATA.xlsx
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1309"/>
+  <dimension ref="A1:G1324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30491,7 +30491,7 @@
         <v>45138</v>
       </c>
       <c r="B1309">
-        <v>29277.75581027272</v>
+        <v>29220.00555232291</v>
       </c>
       <c r="C1309">
         <v>3</v>
@@ -30503,9 +30503,354 @@
         <v>0</v>
       </c>
       <c r="F1309">
-        <v>0.8914830594101801</v>
+        <v>0.9091571369204272</v>
       </c>
       <c r="G1309">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:7">
+      <c r="A1310" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1310">
+        <v>29257.2255102627</v>
+      </c>
+      <c r="C1310">
+        <v>7</v>
+      </c>
+      <c r="D1310">
+        <v>0</v>
+      </c>
+      <c r="E1310">
+        <v>0</v>
+      </c>
+      <c r="F1310">
+        <v>0.9111895566345982</v>
+      </c>
+      <c r="G1310">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:7">
+      <c r="A1311" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1311">
+        <v>29163.6056046116</v>
+      </c>
+      <c r="C1311">
+        <v>3</v>
+      </c>
+      <c r="D1311">
+        <v>0</v>
+      </c>
+      <c r="E1311">
+        <v>1</v>
+      </c>
+      <c r="F1311">
+        <v>0.9132885178241036</v>
+      </c>
+      <c r="G1311">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:7">
+      <c r="A1312" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1312">
+        <v>29258.09780169691</v>
+      </c>
+      <c r="C1312">
+        <v>2</v>
+      </c>
+      <c r="D1312">
+        <v>0</v>
+      </c>
+      <c r="E1312">
+        <v>1</v>
+      </c>
+      <c r="F1312">
+        <v>0.9137074941902312</v>
+      </c>
+      <c r="G1312">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7">
+      <c r="A1313" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1313">
+        <v>28994.49595265385</v>
+      </c>
+      <c r="C1313">
+        <v>2</v>
+      </c>
+      <c r="D1313">
+        <v>0</v>
+      </c>
+      <c r="E1313">
+        <v>0</v>
+      </c>
+      <c r="F1313">
+        <v>0.9070542502152428</v>
+      </c>
+      <c r="G1313">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7">
+      <c r="A1314" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1314">
+        <v>29036.34608849958</v>
+      </c>
+      <c r="C1314">
+        <v>2</v>
+      </c>
+      <c r="D1314">
+        <v>0</v>
+      </c>
+      <c r="E1314">
+        <v>0</v>
+      </c>
+      <c r="F1314">
+        <v>0.9087612250366612</v>
+      </c>
+      <c r="G1314">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7">
+      <c r="A1315" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1315">
+        <v>29044.47746048231</v>
+      </c>
+      <c r="C1315">
+        <v>3</v>
+      </c>
+      <c r="D1315">
+        <v>0</v>
+      </c>
+      <c r="E1315">
+        <v>0</v>
+      </c>
+      <c r="F1315">
+        <v>0.9070716831566004</v>
+      </c>
+      <c r="G1315">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7">
+      <c r="A1316" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1316">
+        <v>29070.22569492281</v>
+      </c>
+      <c r="C1316">
+        <v>2</v>
+      </c>
+      <c r="D1316">
+        <v>0</v>
+      </c>
+      <c r="E1316">
+        <v>1</v>
+      </c>
+      <c r="F1316">
+        <v>0.9052540941022488</v>
+      </c>
+      <c r="G1316">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7">
+      <c r="A1317" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1317">
+        <v>29842.8071494232</v>
+      </c>
+      <c r="C1317">
+        <v>1</v>
+      </c>
+      <c r="D1317">
+        <v>0</v>
+      </c>
+      <c r="E1317">
+        <v>0</v>
+      </c>
+      <c r="F1317">
+        <v>0.9126705782273145</v>
+      </c>
+      <c r="G1317">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7">
+      <c r="A1318" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1318">
+        <v>29482.86136198899</v>
+      </c>
+      <c r="C1318">
+        <v>2</v>
+      </c>
+      <c r="D1318">
+        <v>0</v>
+      </c>
+      <c r="E1318">
+        <v>0</v>
+      </c>
+      <c r="F1318">
+        <v>0.9088969782493518</v>
+      </c>
+      <c r="G1318">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7">
+      <c r="A1319" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1319">
+        <v>29406.76406270633</v>
+      </c>
+      <c r="C1319">
+        <v>5</v>
+      </c>
+      <c r="D1319">
+        <v>0</v>
+      </c>
+      <c r="E1319">
+        <v>0</v>
+      </c>
+      <c r="F1319">
+        <v>0.9090507748770024</v>
+      </c>
+      <c r="G1319">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7">
+      <c r="A1320" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B1320">
+        <v>29361.80661261011</v>
+      </c>
+      <c r="C1320">
+        <v>3</v>
+      </c>
+      <c r="D1320">
+        <v>0</v>
+      </c>
+      <c r="E1320">
+        <v>0</v>
+      </c>
+      <c r="F1320">
+        <v>0.9123683806976765</v>
+      </c>
+      <c r="G1320">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:7">
+      <c r="A1321" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B1321">
+        <v>29396.9615909843</v>
+      </c>
+      <c r="C1321">
+        <v>2</v>
+      </c>
+      <c r="D1321">
+        <v>0</v>
+      </c>
+      <c r="E1321">
+        <v>0</v>
+      </c>
+      <c r="F1321">
+        <v>0.9131963137901368</v>
+      </c>
+      <c r="G1321">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7">
+      <c r="A1322" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B1322">
+        <v>29437.75017330344</v>
+      </c>
+      <c r="C1322">
+        <v>2</v>
+      </c>
+      <c r="D1322">
+        <v>0</v>
+      </c>
+      <c r="E1322">
+        <v>0</v>
+      </c>
+      <c r="F1322">
+        <v>0.9133719447676764</v>
+      </c>
+      <c r="G1322">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7">
+      <c r="A1323" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B1323">
+        <v>29327.43938048513</v>
+      </c>
+      <c r="C1323">
+        <v>5</v>
+      </c>
+      <c r="D1323">
+        <v>0</v>
+      </c>
+      <c r="E1323">
+        <v>1</v>
+      </c>
+      <c r="F1323">
+        <v>0.9148914803456636</v>
+      </c>
+      <c r="G1323">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7">
+      <c r="A1324" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B1324">
+        <v>29144.07255931684</v>
+      </c>
+      <c r="C1324">
+        <v>1</v>
+      </c>
+      <c r="D1324">
+        <v>0</v>
+      </c>
+      <c r="E1324">
+        <v>0</v>
+      </c>
+      <c r="F1324">
+        <v>0.9136344187902592</v>
+      </c>
+      <c r="G1324">
         <v>5.08</v>
       </c>
     </row>

--- a/Data Files/bitcoin/xlsx Files/final_data_TEST_DATA.xlsx
+++ b/Data Files/bitcoin/xlsx Files/final_data_TEST_DATA.xlsx
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1324"/>
+  <dimension ref="A1:G1326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30854,6 +30854,52 @@
         <v>5.08</v>
       </c>
     </row>
+    <row r="1325" spans="1:7">
+      <c r="A1325" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B1325">
+        <v>29114.67565141242</v>
+      </c>
+      <c r="C1325">
+        <v>3</v>
+      </c>
+      <c r="D1325">
+        <v>0</v>
+      </c>
+      <c r="E1325">
+        <v>0</v>
+      </c>
+      <c r="F1325">
+        <v>0.9188924280015596</v>
+      </c>
+      <c r="G1325">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7">
+      <c r="A1326" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B1326">
+        <v>27895.54510920212</v>
+      </c>
+      <c r="C1326">
+        <v>3</v>
+      </c>
+      <c r="D1326">
+        <v>0</v>
+      </c>
+      <c r="E1326">
+        <v>0</v>
+      </c>
+      <c r="F1326">
+        <v>0.9196296105298016</v>
+      </c>
+      <c r="G1326">
+        <v>5.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/bitcoin/xlsx Files/final_data_TEST_DATA.xlsx
+++ b/Data Files/bitcoin/xlsx Files/final_data_TEST_DATA.xlsx
@@ -396,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1326"/>
+  <dimension ref="A1:G1349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30900,6 +30900,535 @@
         <v>5.08</v>
       </c>
     </row>
+    <row r="1327" spans="1:7">
+      <c r="A1327" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B1327">
+        <v>26040.81931205392</v>
+      </c>
+      <c r="C1327">
+        <v>4</v>
+      </c>
+      <c r="D1327">
+        <v>0</v>
+      </c>
+      <c r="E1327">
+        <v>0</v>
+      </c>
+      <c r="F1327">
+        <v>0.9186590956221448</v>
+      </c>
+      <c r="G1327">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7">
+      <c r="A1328" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B1328">
+        <v>26115.91295705558</v>
+      </c>
+      <c r="C1328">
+        <v>1</v>
+      </c>
+      <c r="D1328">
+        <v>0</v>
+      </c>
+      <c r="E1328">
+        <v>1</v>
+      </c>
+      <c r="F1328">
+        <v>0.9208352491360976</v>
+      </c>
+      <c r="G1328">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7">
+      <c r="A1329" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B1329">
+        <v>26137.35350149368</v>
+      </c>
+      <c r="C1329">
+        <v>2</v>
+      </c>
+      <c r="D1329">
+        <v>0</v>
+      </c>
+      <c r="E1329">
+        <v>0</v>
+      </c>
+      <c r="F1329">
+        <v>0.9267152860013572</v>
+      </c>
+      <c r="G1329">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7">
+      <c r="A1330" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B1330">
+        <v>26086.51127135073</v>
+      </c>
+      <c r="C1330">
+        <v>4</v>
+      </c>
+      <c r="D1330">
+        <v>0</v>
+      </c>
+      <c r="E1330">
+        <v>0</v>
+      </c>
+      <c r="F1330">
+        <v>0.9173868726084622</v>
+      </c>
+      <c r="G1330">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7">
+      <c r="A1331" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B1331">
+        <v>25826.03364121723</v>
+      </c>
+      <c r="C1331">
+        <v>2</v>
+      </c>
+      <c r="D1331">
+        <v>0</v>
+      </c>
+      <c r="E1331">
+        <v>1</v>
+      </c>
+      <c r="F1331">
+        <v>0.9216308215777896</v>
+      </c>
+      <c r="G1331">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7">
+      <c r="A1332" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B1332">
+        <v>26641.12006805852</v>
+      </c>
+      <c r="C1332">
+        <v>3</v>
+      </c>
+      <c r="D1332">
+        <v>0</v>
+      </c>
+      <c r="E1332">
+        <v>0</v>
+      </c>
+      <c r="F1332">
+        <v>0.916416413647274</v>
+      </c>
+      <c r="G1332">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7">
+      <c r="A1333" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B1333">
+        <v>26021.08163211241</v>
+      </c>
+      <c r="C1333">
+        <v>3</v>
+      </c>
+      <c r="D1333">
+        <v>0</v>
+      </c>
+      <c r="E1333">
+        <v>0</v>
+      </c>
+      <c r="F1333">
+        <v>0.924915071315602</v>
+      </c>
+      <c r="G1333">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7">
+      <c r="A1334" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B1334">
+        <v>25949.31275796248</v>
+      </c>
+      <c r="C1334">
+        <v>1</v>
+      </c>
+      <c r="D1334">
+        <v>0</v>
+      </c>
+      <c r="E1334">
+        <v>0</v>
+      </c>
+      <c r="F1334">
+        <v>0.9253015746700952</v>
+      </c>
+      <c r="G1334">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7">
+      <c r="A1335" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B1335">
+        <v>26025.2295197059</v>
+      </c>
+      <c r="C1335">
+        <v>1</v>
+      </c>
+      <c r="D1335">
+        <v>0</v>
+      </c>
+      <c r="E1335">
+        <v>0</v>
+      </c>
+      <c r="F1335">
+        <v>0.9260709106473284</v>
+      </c>
+      <c r="G1335">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7">
+      <c r="A1336" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B1336">
+        <v>26112.34304465044</v>
+      </c>
+      <c r="C1336">
+        <v>2</v>
+      </c>
+      <c r="D1336">
+        <v>0</v>
+      </c>
+      <c r="E1336">
+        <v>0</v>
+      </c>
+      <c r="F1336">
+        <v>0.9291095803036642</v>
+      </c>
+      <c r="G1336">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7">
+      <c r="A1337" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B1337">
+        <v>25975.58230041972</v>
+      </c>
+      <c r="C1337">
+        <v>2</v>
+      </c>
+      <c r="D1337">
+        <v>0</v>
+      </c>
+      <c r="E1337">
+        <v>0</v>
+      </c>
+      <c r="F1337">
+        <v>0.9245288456351862</v>
+      </c>
+      <c r="G1337">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7">
+      <c r="A1338" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B1338">
+        <v>27852.18330418598</v>
+      </c>
+      <c r="C1338">
+        <v>5</v>
+      </c>
+      <c r="D1338">
+        <v>0</v>
+      </c>
+      <c r="E1338">
+        <v>0</v>
+      </c>
+      <c r="F1338">
+        <v>0.9182388455392472</v>
+      </c>
+      <c r="G1338">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7">
+      <c r="A1339" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B1339">
+        <v>27251.96914888735</v>
+      </c>
+      <c r="C1339">
+        <v>4</v>
+      </c>
+      <c r="D1339">
+        <v>0</v>
+      </c>
+      <c r="E1339">
+        <v>1</v>
+      </c>
+      <c r="F1339">
+        <v>0.9140910262678168</v>
+      </c>
+      <c r="G1339">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7">
+      <c r="A1340" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B1340">
+        <v>26179.07181383978</v>
+      </c>
+      <c r="C1340">
+        <v>4</v>
+      </c>
+      <c r="D1340">
+        <v>0</v>
+      </c>
+      <c r="E1340">
+        <v>1</v>
+      </c>
+      <c r="F1340">
+        <v>0.9183313397383228</v>
+      </c>
+      <c r="G1340">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7">
+      <c r="A1341" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B1341">
+        <v>25581.65193106596</v>
+      </c>
+      <c r="C1341">
+        <v>3</v>
+      </c>
+      <c r="D1341">
+        <v>0</v>
+      </c>
+      <c r="E1341">
+        <v>0</v>
+      </c>
+      <c r="F1341">
+        <v>0.9275432091775184</v>
+      </c>
+      <c r="G1341">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7">
+      <c r="A1342" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B1342">
+        <v>25845.21631827925</v>
+      </c>
+      <c r="C1342">
+        <v>3</v>
+      </c>
+      <c r="D1342">
+        <v>0</v>
+      </c>
+      <c r="E1342">
+        <v>0</v>
+      </c>
+      <c r="F1342">
+        <v>0.922686074170466</v>
+      </c>
+      <c r="G1342">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7">
+      <c r="A1343" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B1343">
+        <v>25991.65745373537</v>
+      </c>
+      <c r="C1343">
+        <v>3</v>
+      </c>
+      <c r="D1343">
+        <v>0</v>
+      </c>
+      <c r="E1343">
+        <v>0</v>
+      </c>
+      <c r="F1343">
+        <v>0.9284101405876204</v>
+      </c>
+      <c r="G1343">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7">
+      <c r="A1344" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B1344">
+        <v>25871.5364941652</v>
+      </c>
+      <c r="C1344">
+        <v>2</v>
+      </c>
+      <c r="D1344">
+        <v>0</v>
+      </c>
+      <c r="E1344">
+        <v>1</v>
+      </c>
+      <c r="F1344">
+        <v>0.9265092605722368</v>
+      </c>
+      <c r="G1344">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7">
+      <c r="A1345" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B1345">
+        <v>25706.43383971701</v>
+      </c>
+      <c r="C1345">
+        <v>2</v>
+      </c>
+      <c r="D1345">
+        <v>0</v>
+      </c>
+      <c r="E1345">
+        <v>0</v>
+      </c>
+      <c r="F1345">
+        <v>0.9320291692234548</v>
+      </c>
+      <c r="G1345">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7">
+      <c r="A1346" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B1346">
+        <v>25643.30464824743</v>
+      </c>
+      <c r="C1346">
+        <v>9</v>
+      </c>
+      <c r="D1346">
+        <v>0</v>
+      </c>
+      <c r="E1346">
+        <v>0</v>
+      </c>
+      <c r="F1346">
+        <v>0.9321445941858784</v>
+      </c>
+      <c r="G1346">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7">
+      <c r="A1347" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B1347">
+        <v>25871.77707088979</v>
+      </c>
+      <c r="C1347">
+        <v>4</v>
+      </c>
+      <c r="D1347">
+        <v>0</v>
+      </c>
+      <c r="E1347">
+        <v>1</v>
+      </c>
+      <c r="F1347">
+        <v>0.9334941303910536</v>
+      </c>
+      <c r="G1347">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7">
+      <c r="A1348" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B1348">
+        <v>25880.11091714333</v>
+      </c>
+      <c r="C1348">
+        <v>2</v>
+      </c>
+      <c r="D1348">
+        <v>0</v>
+      </c>
+      <c r="E1348">
+        <v>0</v>
+      </c>
+      <c r="F1348">
+        <v>0.9327919389566486</v>
+      </c>
+      <c r="G1348">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7">
+      <c r="A1349" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B1349">
+        <v>25857.72787564452</v>
+      </c>
+      <c r="C1349">
+        <v>3</v>
+      </c>
+      <c r="D1349">
+        <v>0</v>
+      </c>
+      <c r="E1349">
+        <v>0</v>
+      </c>
+      <c r="F1349">
+        <v>0.9327130559698408</v>
+      </c>
+      <c r="G1349">
+        <v>5.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Files/bitcoin/xlsx Files/final_data_TEST_DATA.xlsx
+++ b/Data Files/bitcoin/xlsx Files/final_data_TEST_DATA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1366"/>
+  <dimension ref="A1:G1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31495,7 +31495,7 @@
         <v>0</v>
       </c>
       <c r="F1350" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9337349777105155</v>
       </c>
       <c r="G1350" t="n">
         <v>5.08</v>
@@ -31518,7 +31518,7 @@
         <v>0</v>
       </c>
       <c r="F1351" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9347568994511901</v>
       </c>
       <c r="G1351" t="n">
         <v>5.08</v>
@@ -31541,7 +31541,7 @@
         <v>0</v>
       </c>
       <c r="F1352" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9357788211918647</v>
       </c>
       <c r="G1352" t="n">
         <v>5.08</v>
@@ -31564,7 +31564,7 @@
         <v>0</v>
       </c>
       <c r="F1353" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9368007429325395</v>
       </c>
       <c r="G1353" t="n">
         <v>5.08</v>
@@ -31587,7 +31587,7 @@
         <v>0</v>
       </c>
       <c r="F1354" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9378226646732142</v>
       </c>
       <c r="G1354" t="n">
         <v>5.08</v>
@@ -31610,7 +31610,7 @@
         <v>0</v>
       </c>
       <c r="F1355" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9388445864138888</v>
       </c>
       <c r="G1355" t="n">
         <v>5.08</v>
@@ -31633,7 +31633,7 @@
         <v>0</v>
       </c>
       <c r="F1356" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9398665081545634</v>
       </c>
       <c r="G1356" t="n">
         <v>5.08</v>
@@ -31656,7 +31656,7 @@
         <v>0</v>
       </c>
       <c r="F1357" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9408884298952381</v>
       </c>
       <c r="G1357" t="n">
         <v>5.08</v>
@@ -31679,7 +31679,7 @@
         <v>0</v>
       </c>
       <c r="F1358" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9419103516359129</v>
       </c>
       <c r="G1358" t="n">
         <v>5.08</v>
@@ -31702,7 +31702,7 @@
         <v>0</v>
       </c>
       <c r="F1359" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9429322733765875</v>
       </c>
       <c r="G1359" t="n">
         <v>5.08</v>
@@ -31725,7 +31725,7 @@
         <v>0</v>
       </c>
       <c r="F1360" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9439541951172621</v>
       </c>
       <c r="G1360" t="n">
         <v>5.08</v>
@@ -31748,7 +31748,7 @@
         <v>0</v>
       </c>
       <c r="F1361" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9449761168579368</v>
       </c>
       <c r="G1361" t="n">
         <v>5.08</v>
@@ -31771,7 +31771,7 @@
         <v>0</v>
       </c>
       <c r="F1362" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9459980385986115</v>
       </c>
       <c r="G1362" t="n">
         <v>5.08</v>
@@ -31794,7 +31794,7 @@
         <v>0</v>
       </c>
       <c r="F1363" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9470199603392861</v>
       </c>
       <c r="G1363" t="n">
         <v>5.08</v>
@@ -31817,7 +31817,7 @@
         <v>0</v>
       </c>
       <c r="F1364" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9480418820799608</v>
       </c>
       <c r="G1364" t="n">
         <v>5.08</v>
@@ -31840,7 +31840,7 @@
         <v>0</v>
       </c>
       <c r="F1365" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9490638038206355</v>
       </c>
       <c r="G1365" t="n">
         <v>5.08</v>
@@ -31863,9 +31863,285 @@
         <v>0</v>
       </c>
       <c r="F1366" t="n">
-        <v>0.9327130559698408</v>
+        <v>0.9500857255613102</v>
       </c>
       <c r="G1366" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>26245.58513693956</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>0.9511076473019848</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>27113.03000843266</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>0.9449566879598192</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>26952.94130429872</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>0.9456975608411728</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>27024.70313864521</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>0.9456215060157313</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>27101.52779375529</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>0.9457021287033124</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>27927.67807075597</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>0.9548403433441152</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>27265.62463094056</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>0.9520866630861704</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>27617.79707466413</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>0.9516838067382168</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>27467.99684038584</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>0.9495098179422627</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>27985.7686619</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>0.9442427787607888</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>27876.74105849813</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>0.9444399514788177</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45207</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>27902.96253787604</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>0.9454029731186946</v>
+      </c>
+      <c r="G1378" t="n">
         <v>5.08</v>
       </c>
     </row>

--- a/Data Files/bitcoin/xlsx Files/final_data_TEST_DATA.xlsx
+++ b/Data Files/bitcoin/xlsx Files/final_data_TEST_DATA.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1378"/>
+  <dimension ref="A1:G1517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32145,6 +32145,3203 @@
         <v>5.08</v>
       </c>
     </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>27948.10365174851</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>0.9457616408940104</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>27593.78253443966</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>0.9458719939969992</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>27392.2477027325</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>0.9418504513989946</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>26842.1904390924</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>0.9371815162452984</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>26729.1372058151</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>0.9486430923517376</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>26841.13622064441</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>0.9479669289916348</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45214</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>26863.18356907992</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>0.9517374997653508</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>27150.29700140705</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>0.9511400879149025</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>28513.30993247735</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>0.9466280156956492</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>28417.72175169982</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>0.9465662618061806</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>28328.24519813482</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>0.948465978717304</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>28715.74814240795</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>0.9451491541775148</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>29677.39288847621</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>0.9447987159158298</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45221</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>29920.07449265145</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>0.9447355074834112</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>30019.38050086351</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>0.9442536347444758</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>32953.26276083098</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>0.9368670245318717</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>33846.72425733224</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>0.9426736264548318</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>34471.98603167202</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>0.9460354420237632</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>34174.45155291259</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>0.9484597745663718</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>33899.09305644032</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>0.9465690694959128</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45228</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>34092.63093283858</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>0.9458378644196922</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>34556.24281476162</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>0.9456712083248112</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>34498.70391946407</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>0.9428466669548856</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>34672.2892841885</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>0.9461954440959768</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>35457.45491210553</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>0.9464282241132318</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>34924.05545044328</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>0.9422328909815196</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>34731.38136896784</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>0.9312958220851334</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45235</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>35048.40783490107</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>0.9347413209698966</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>35061.92874919579</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>0.93599725342184</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>35031.26888208706</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>0.9329003033454832</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>35436.53762957962</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>0.9398552860879338</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>35795.0806307102</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>0.9346188085283772</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>36768.42081912672</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>0.9382198088392684</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>37344.24900072035</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>0.9351108950851816</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45242</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>37122.72282430656</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>0.9394146981881806</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>37067.69698212008</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>0.9351248221175344</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>36549.16204829837</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>0.935437059715657</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>35545.20143345407</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>0.9198884362648032</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>37903.66245166294</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>0.9227007321539276</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>36201.51611146142</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>0.9211450709065636</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>36527.76022530742</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>0.9172760212037482</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>36582.36844192274</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>0.9163590501137914</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>37413.99460790531</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>0.9178315205840673</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>37489.29847080202</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>0.9152102573227366</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>35965.36036068078</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>0.91780170953887</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45253</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>37464.83293220907</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>0.920798952059709</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>37293.31612742673</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>0.9190593618577992</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>37738.93169747125</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>0.9165332460469506</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45256</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>37809.85286625321</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>0.9136846214640336</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>37491.83818600814</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>0.9172627317194424</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>37250.16905148115</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>0.9129141754175456</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>37802.23604377473</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>0.9107151448786912</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>37810.34641654128</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>0.9118489704293848</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>37711.81837585267</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>0.9183369929718712</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>38688.25874179069</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>0.9245729135096348</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>39481.66641606286</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>0.9252191436011232</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>39960.27542041052</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>0.9223545575311096</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>41974.33177254334</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>0.9255011484545528</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>44105.94477259938</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>0.9270924392555342</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>43788.28880825234</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>0.9279949122675908</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>43270.11955970747</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>0.9330513399330396</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>44202.17610943621</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>0.9310799751007044</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>43745.49199189547</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>0.928719676334498</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>43757.95993761918</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>0.9305730693638168</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>41200.96272610168</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>0.9297222741172922</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>41450.81938737744</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>0.9274348028709092</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>42931.76182603245</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>0.9253544878069694</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>43009.5954563739</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>0.9193573211760886</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>41992.01418722399</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>0.921253526123512</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>42247.06788172229</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>0.9217396584468978</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>41410.81963457586</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>0.9196428927335352</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>42684.18255468339</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>0.9172514027250904</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>42250.20618279751</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>0.9167044391877736</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>43634.1241684964</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>0.9133102709048582</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>43849.69959939619</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>0.9195751568258465</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>44003.6960216438</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>0.917482602086372</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45284</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>43752.03088478376</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>0.91454026011395</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>43034.97106309152</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>0.921165952505086</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>43638.23630220092</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>0.9130638753410724</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>42516.42694028252</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>0.9071328404268896</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>43418.46777504291</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>0.9150287467751844</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>42600.65063315619</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>0.9067552655660333</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>42074.70715618848</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>0.9146399696325264</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>42220.61140121376</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>0.9119386801207846</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>42208.20217618648</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>0.9107184149179124</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>44168.68118687473</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>0.9129065976846708</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>44994.67388689237</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>0.9159844082939458</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>42821.558989158</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>0.917466740137594</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>44195.57856209971</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>0.918839045971852</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>44113.69973389081</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>0.9242187922828472</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>43956.12071720152</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>0.9206507884362776</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>43883.74387905174</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>0.9217330541492468</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>46936.18556121751</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>0.9143213678229256</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>46105.94607828697</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>0.9156338051625904</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>46632.31314804979</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>0.9139927580372474</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>46314.35554160269</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>11</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>0.9112572388837912</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>42893.92960550481</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>0.9119137373957776</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>42848.47451640749</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>0.9136861486895842</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>41800.93282193406</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>0.9121919062818314</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>42587.33603835441</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>0.9179701273478432</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>43148.00164342693</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>0.9178831711712864</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>42713.85918693899</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>0.91697590466639</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>41261.39479801012</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>0.9173549116085208</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>41600.94093254464</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>0.9167272155977474</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45312</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>41626.10711003664</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>0.9170967013011816</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>41541.89945706261</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>0.9192971552632508</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>39504.73005758438</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>0.915402982469925</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>39833.45410501688</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>0.921190806539734</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>40123.67105847147</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>0.9186637115475812</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>39938.28644155878</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>0.9215752099770762</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45318</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>41862.9356109399</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>0.9220461565638148</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45319</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>42119.61049464309</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>0.9226640195107104</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>42026.57856232145</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>0.9231873702579476</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>43267.60927638767</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>0.922320793323699</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>42892.03453014447</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>0.9238868222587212</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>42583.26354663417</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>0.9237851656620868</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>43069.0434209368</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>0.9229203745253124</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>43170.65856159975</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>0.9258987421882034</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>42976.84829990829</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>0.9258508526980924</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>42599.35997055978</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>0.9275778065221452</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>42648.45692113544</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>0.9306844907061552</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>43087.78740814285</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>0.9319862797869902</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>44247.41541547931</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>0.928160669022553</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>45338.27118978949</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>0.930411607302996</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>47143.24299107112</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>0.9270274560368432</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45333</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>47768.99525124794</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>0.9270975523262068</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>48189.88179303987</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>0.9284688390290136</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>50050.13609456397</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>0.9284746004560016</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>49732.14536955351</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>0.9343293487007064</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>51790.16929752642</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>0.9318769402412724</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>51958.23029105492</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>0.9299918562438134</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45339</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>52166.43430976192</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>0.9307126662581066</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45340</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>51684.51749264525</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>0.9279043383810304</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>52138.48578873693</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>0.9270099574161196</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>51764.31318548776</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>0.9302225599850594</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>52286.79372554667</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>0.9262042734330064</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>51842.75676625642</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>0.9254005408731008</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>51319.50012570267</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>0.9246029106702608</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>50841.0810947709</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>0.9268059536371416</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>5.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
